--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/155.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/155.xlsx
@@ -479,13 +479,13 @@
         <v>-13.28166267485501</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.28932525432254</v>
+        <v>-11.28419307160858</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6852353245940086</v>
+        <v>0.6229814245816011</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.158317664267796</v>
+        <v>-5.196180604086067</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.69009165137175</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.4747515394699</v>
+        <v>-11.47417547814487</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7649412642944369</v>
+        <v>0.6974635354481807</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.043105399260607</v>
+        <v>-5.081073077501612</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.04118366532924</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.01677287711736</v>
+        <v>-12.01918186084024</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7723776923085374</v>
+        <v>0.7096917463023529</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.73889265043026</v>
+        <v>-4.77538089845015</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.39338209345835</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.70554583731773</v>
+        <v>-12.70665868305928</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7864257332577094</v>
+        <v>0.7230328028980718</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.825498233728277</v>
+        <v>-4.862051943262377</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.75035349093636</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.30516021516594</v>
+        <v>-13.30673129150695</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8164987528851542</v>
+        <v>0.7556195446711279</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.110383560210358</v>
+        <v>-4.156599389241651</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.11657944549156</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.57365716184406</v>
+        <v>-13.58551878821866</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9377727541080627</v>
+        <v>0.8710020096152598</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.120215879644494</v>
+        <v>-4.168749046278773</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.505671965170311</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.14979704069706</v>
+        <v>-14.16253585136206</v>
       </c>
       <c r="F8" t="n">
-        <v>1.014402002640685</v>
+        <v>0.9519124411771269</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.710989769720663</v>
+        <v>-3.756721183546812</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.916374496892557</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.94311203908861</v>
+        <v>-14.95382154281314</v>
       </c>
       <c r="F9" t="n">
-        <v>1.23652601265341</v>
+        <v>1.174638697120571</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.336641554567189</v>
+        <v>-3.389508273442079</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.363698219340741</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.53607552709322</v>
+        <v>-15.54886670696959</v>
       </c>
       <c r="F10" t="n">
-        <v>1.286198209634918</v>
+        <v>1.22150914129395</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.630141616319126</v>
+        <v>-2.688363087056281</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.841419745747119</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.13815125787568</v>
+        <v>-16.15236949876179</v>
       </c>
       <c r="F11" t="n">
-        <v>1.228461154102907</v>
+        <v>1.166311992513233</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.177069384178353</v>
+        <v>-2.242674913718242</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.363056678071779</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.60604397683329</v>
+        <v>-16.62184638636325</v>
       </c>
       <c r="F12" t="n">
-        <v>1.254475559849416</v>
+        <v>1.19473538198262</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.757120678227148</v>
+        <v>-1.819662608902073</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.919856587583458</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.40034089793797</v>
+        <v>-17.41758346078052</v>
       </c>
       <c r="F13" t="n">
-        <v>1.476494831439407</v>
+        <v>1.414515869786676</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.9611741269644114</v>
+        <v>-1.028416194359516</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.524228234138366</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.21546767286383</v>
+        <v>-18.23112606706253</v>
       </c>
       <c r="F14" t="n">
-        <v>1.678823279555442</v>
+        <v>1.618336840426667</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7738625502078366</v>
+        <v>-0.8304998523011435</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.169238554042304</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.05876908350509</v>
+        <v>-19.07310515511678</v>
       </c>
       <c r="F15" t="n">
-        <v>1.727683753760763</v>
+        <v>1.66827088346501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3436232942230344</v>
+        <v>-0.3982705662843991</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.864980105339868</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.06057900465113</v>
+        <v>-20.06928538604087</v>
       </c>
       <c r="F16" t="n">
-        <v>2.054179602027728</v>
+        <v>1.99131036378176</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2282223092978767</v>
+        <v>0.1709696689710087</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.607647040178422</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.77043057242667</v>
+        <v>-20.78059019943185</v>
       </c>
       <c r="F17" t="n">
-        <v>2.111680996108589</v>
+        <v>2.053079848589023</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3196589523444916</v>
+        <v>0.2694106940379469</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.402364592890099</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.68062055828631</v>
+        <v>-21.68961497033857</v>
       </c>
       <c r="F18" t="n">
-        <v>2.232339659097936</v>
+        <v>2.173110081041968</v>
       </c>
       <c r="G18" t="n">
-        <v>0.881986451699468</v>
+        <v>0.8299707325092903</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.244438016665816</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.6928650447972</v>
+        <v>-22.69683201255825</v>
       </c>
       <c r="F19" t="n">
-        <v>2.330322453565414</v>
+        <v>2.272480659610669</v>
       </c>
       <c r="G19" t="n">
-        <v>1.092968911993883</v>
+        <v>1.046124652426188</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.132126997239974</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.04314960732759</v>
+        <v>-23.0531652190015</v>
       </c>
       <c r="F20" t="n">
-        <v>2.630371850092093</v>
+        <v>2.572818086799864</v>
       </c>
       <c r="G20" t="n">
-        <v>1.706736069214002</v>
+        <v>1.651015228319616</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.059096961085696</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.00522438934898</v>
+        <v>-24.00926991092707</v>
       </c>
       <c r="F21" t="n">
-        <v>2.750244974910936</v>
+        <v>2.697692471304248</v>
       </c>
       <c r="G21" t="n">
-        <v>1.805766247908818</v>
+        <v>1.756486820012561</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.018351933266143</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.33932686556699</v>
+        <v>-24.34676329358109</v>
       </c>
       <c r="F22" t="n">
-        <v>2.833197805716113</v>
+        <v>2.781090440406043</v>
       </c>
       <c r="G22" t="n">
-        <v>2.078321808467871</v>
+        <v>2.026423920003269</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.005777748716938</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.87440928270833</v>
+        <v>-24.88377027924017</v>
       </c>
       <c r="F23" t="n">
-        <v>2.763808600654964</v>
+        <v>2.716178802916765</v>
       </c>
       <c r="G23" t="n">
-        <v>2.628119974003315</v>
+        <v>2.571849256389577</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.01497119842678</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.41718997392061</v>
+        <v>-25.4205416034481</v>
       </c>
       <c r="F24" t="n">
-        <v>2.642966645425833</v>
+        <v>2.599028877089</v>
       </c>
       <c r="G24" t="n">
-        <v>2.415553345065051</v>
+        <v>2.36245096473901</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.046391913127955</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.55966041344428</v>
+        <v>-25.56434745786161</v>
       </c>
       <c r="F25" t="n">
-        <v>2.760221309676331</v>
+        <v>2.720734924305686</v>
       </c>
       <c r="G25" t="n">
-        <v>2.320215195771602</v>
+        <v>2.27059536800146</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.093020283245853</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.64101598330276</v>
+        <v>-25.64256087503809</v>
       </c>
       <c r="F26" t="n">
-        <v>2.93049980043582</v>
+        <v>2.886719139733089</v>
       </c>
       <c r="G26" t="n">
-        <v>2.322571810283113</v>
+        <v>2.272244998159517</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.158704089965394</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.39285138293785</v>
+        <v>-25.39728967360119</v>
       </c>
       <c r="F27" t="n">
-        <v>2.625684805674754</v>
+        <v>2.586067497275691</v>
       </c>
       <c r="G27" t="n">
-        <v>2.02514087432478</v>
+        <v>1.981648244284566</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.237186813550492</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.49363593021345</v>
+        <v>-25.49366211481913</v>
       </c>
       <c r="F28" t="n">
-        <v>2.894129383141506</v>
+        <v>2.852836259978702</v>
       </c>
       <c r="G28" t="n">
-        <v>1.981334029016364</v>
+        <v>1.934673061688452</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.333621123408053</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.71339023341183</v>
+        <v>-25.70895194274848</v>
       </c>
       <c r="F29" t="n">
-        <v>2.716362095156549</v>
+        <v>2.681012877483889</v>
       </c>
       <c r="G29" t="n">
-        <v>1.886388648808167</v>
+        <v>1.835354852331119</v>
       </c>
     </row>
     <row r="30">
@@ -1126,10 +1126,10 @@
         <v>-25.36139057920918</v>
       </c>
       <c r="F30" t="n">
-        <v>2.691512904362953</v>
+        <v>2.654068918235617</v>
       </c>
       <c r="G30" t="n">
-        <v>2.026004966312334</v>
+        <v>1.968163172357588</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.559245550752719</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.58525268214597</v>
+        <v>-24.59342227911921</v>
       </c>
       <c r="F31" t="n">
-        <v>2.60258998346195</v>
+        <v>2.566245750773318</v>
       </c>
       <c r="G31" t="n">
-        <v>1.495112086080342</v>
+        <v>1.437139369097179</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.681120439912535</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.71722309479057</v>
+        <v>-24.71838830974349</v>
       </c>
       <c r="F32" t="n">
-        <v>2.582532575508425</v>
+        <v>2.54616215821411</v>
       </c>
       <c r="G32" t="n">
-        <v>1.612157273485372</v>
+        <v>1.5447057292448</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.809453769779185</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.14319107669509</v>
+        <v>-24.14765555196412</v>
       </c>
       <c r="F33" t="n">
-        <v>2.640557661702955</v>
+        <v>2.60183062989713</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8393710059496496</v>
+        <v>0.7807305815215585</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.935854851878751</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.49444128628188</v>
+        <v>-23.50350115984835</v>
       </c>
       <c r="F34" t="n">
-        <v>2.62042169993238</v>
+        <v>2.580097407179864</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7710291851158395</v>
+        <v>0.7126898836531081</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.068460198928719</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.85214600116964</v>
+        <v>-22.86601074987903</v>
       </c>
       <c r="F35" t="n">
-        <v>2.497511160854256</v>
+        <v>2.455720530183466</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8299969171149737</v>
+        <v>0.7668134636008037</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.203296808520079</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.04823932977914</v>
+        <v>-22.06283724744766</v>
       </c>
       <c r="F36" t="n">
-        <v>2.350039461645054</v>
+        <v>2.310238861006206</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8525156780027425</v>
+        <v>0.7847891954024936</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.353854004606069</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.09112653053475</v>
+        <v>-21.1142344450504</v>
       </c>
       <c r="F37" t="n">
-        <v>2.392406153640879</v>
+        <v>2.352238968522464</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7925791155933206</v>
+        <v>0.7225222030872445</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.520715449295378</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.97355765101605</v>
+        <v>-20.98934696824317</v>
       </c>
       <c r="F38" t="n">
-        <v>2.220137632849448</v>
+        <v>2.181358231832255</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4907229812744844</v>
+        <v>0.4277228200000986</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.720288172720017</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.11154733961397</v>
+        <v>-20.1331758239085</v>
       </c>
       <c r="F39" t="n">
-        <v>2.465146988229509</v>
+        <v>2.423068326896202</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3235473662884842</v>
+        <v>0.261856435298271</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.952294649651489</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.59237207042532</v>
+        <v>-19.61551926184949</v>
       </c>
       <c r="F40" t="n">
-        <v>2.303116648260307</v>
+        <v>2.259571649008727</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0001674860978503593</v>
+        <v>-0.05855149214729106</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.228271986206901</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.62737770487022</v>
+        <v>-18.66123440001892</v>
       </c>
       <c r="F41" t="n">
-        <v>2.520317952404543</v>
+        <v>2.479234306087207</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.06021421460819026</v>
+        <v>-0.1230441759456337</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.541135782983836</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.37165884576562</v>
+        <v>-18.39337897618005</v>
       </c>
       <c r="F42" t="n">
-        <v>2.524140904834327</v>
+        <v>2.486565995678573</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.3112198446897624</v>
+        <v>-0.3698602691178535</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.894803434411109</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.44689712684314</v>
+        <v>-17.47343522470332</v>
       </c>
       <c r="F43" t="n">
-        <v>2.878523358154168</v>
+        <v>2.836785096694745</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.3186300880981794</v>
+        <v>-0.3731464371311268</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.275751372474422</v>
       </c>
       <c r="E44" t="n">
-        <v>-16.9926727720523</v>
+        <v>-17.02383245281561</v>
       </c>
       <c r="F44" t="n">
-        <v>2.815078058583164</v>
+        <v>2.771480690120216</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.6495642270284893</v>
+        <v>-0.7007944080481633</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.680419347978122</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.2605904740515</v>
+        <v>-16.29459118453147</v>
       </c>
       <c r="F45" t="n">
-        <v>2.759619063745612</v>
+        <v>2.719268586387412</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.6931354108857536</v>
+        <v>-0.7459628528521183</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.089336153761536</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.78551008083379</v>
+        <v>-15.82091166771782</v>
       </c>
       <c r="F46" t="n">
-        <v>2.925131956270713</v>
+        <v>2.883629356262441</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.8552181200663224</v>
+        <v>-0.9088311002031906</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.493697120635563</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.04675070838371</v>
+        <v>-15.0885413390545</v>
       </c>
       <c r="F47" t="n">
-        <v>2.900858826802153</v>
+        <v>2.859068196131363</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.186034428271057</v>
+        <v>-1.24036748506422</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.874838009512581</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.39573594957888</v>
+        <v>-14.43688505741043</v>
       </c>
       <c r="F48" t="n">
-        <v>2.764149000528849</v>
+        <v>2.723981815410434</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.225546998247386</v>
+        <v>-1.279290901412671</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.22443835813309</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.7852418680692</v>
+        <v>-13.82972951312538</v>
       </c>
       <c r="F49" t="n">
-        <v>3.166108882375523</v>
+        <v>3.119762130315813</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.407687115381479</v>
+        <v>-1.46586930921011</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.52896000043745</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.19089059596336</v>
+        <v>-13.23408210303821</v>
       </c>
       <c r="F50" t="n">
-        <v>3.220887077465305</v>
+        <v>3.174540325405594</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.360397717517164</v>
+        <v>-1.424261970779104</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.78216794885764</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.33684040468904</v>
+        <v>-12.37941657353033</v>
       </c>
       <c r="F51" t="n">
-        <v>3.206354621310989</v>
+        <v>3.160793407421782</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.364587254426517</v>
+        <v>-1.433308752042737</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.97806162379063</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.32881482304706</v>
+        <v>-12.3566883357971</v>
       </c>
       <c r="F52" t="n">
-        <v>3.16980091177689</v>
+        <v>3.122904282997827</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.459480265423347</v>
+        <v>-1.528895655090179</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.11537511811309</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.52126849146656</v>
+        <v>-11.55682718598469</v>
       </c>
       <c r="F53" t="n">
-        <v>3.448038531769252</v>
+        <v>3.397004735292204</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.606454457124564</v>
+        <v>-1.67431186275323</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.1974247635391</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.28588197867516</v>
+        <v>-11.31950301237272</v>
       </c>
       <c r="F54" t="n">
-        <v>3.102506475170418</v>
+        <v>3.054457723741283</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.6693760645819</v>
+        <v>-1.740964776520458</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.2274576514401</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.70369345590929</v>
+        <v>-10.7403126269576</v>
       </c>
       <c r="F55" t="n">
-        <v>2.984832857228984</v>
+        <v>2.936286598291864</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.056083413617963</v>
+        <v>-2.129164648080478</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.2161032573433</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.14695636986773</v>
+        <v>-10.18637729372417</v>
       </c>
       <c r="F56" t="n">
-        <v>3.209392035570269</v>
+        <v>3.157886916190919</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.334491233547267</v>
+        <v>-2.40368405406579</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.1674506658221</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.556192388740525</v>
+        <v>-9.588713668999372</v>
       </c>
       <c r="F57" t="n">
-        <v>3.235340979802571</v>
+        <v>3.18011764641617</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.825426405506311</v>
+        <v>-2.888348012963647</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.09449675061675</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.426500036790387</v>
+        <v>-9.456429041086572</v>
       </c>
       <c r="F58" t="n">
-        <v>3.196980532476313</v>
+        <v>3.140343230383006</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.640759473923765</v>
+        <v>-2.712151801319698</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.996984900432</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.826885658942174</v>
+        <v>-8.858883247087352</v>
       </c>
       <c r="F59" t="n">
-        <v>3.30572519987969</v>
+        <v>3.245422052990699</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.01292127450267</v>
+        <v>-3.07958728057274</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.88638662853371</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.715692730907394</v>
+        <v>-8.74615851962009</v>
       </c>
       <c r="F60" t="n">
-        <v>3.100647368166892</v>
+        <v>3.042700835789413</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.721054567252071</v>
+        <v>-2.794044155594694</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.75790433420885</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.281198476499032</v>
+        <v>-8.30887560470644</v>
       </c>
       <c r="F61" t="n">
-        <v>3.166972974363077</v>
+        <v>3.106879304319554</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.185412364442411</v>
+        <v>-3.255325261617229</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.62090493561596</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.909350891188327</v>
+        <v>-7.936831634853111</v>
       </c>
       <c r="F62" t="n">
-        <v>2.972997415460064</v>
+        <v>2.918114481947548</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.311203210145715</v>
+        <v>-3.375997016909418</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.46612564411176</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.72535166705071</v>
+        <v>-7.748551227686248</v>
       </c>
       <c r="F63" t="n">
-        <v>3.267469490976166</v>
+        <v>3.204495514307464</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.289064126040357</v>
+        <v>-3.354957686242764</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.29892181588803</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.464526809837843</v>
+        <v>-7.485762525047122</v>
       </c>
       <c r="F64" t="n">
-        <v>3.126072620285525</v>
+        <v>3.061841782544017</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.622656002447537</v>
+        <v>-3.684202918106491</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.10657003234393</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.180633315017855</v>
+        <v>-7.200913292119688</v>
       </c>
       <c r="F65" t="n">
-        <v>3.227590336520269</v>
+        <v>3.161893160860487</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.657481528006528</v>
+        <v>-3.721162489028684</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.891933088713868</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.966783640401101</v>
+        <v>-6.986762494537575</v>
       </c>
       <c r="F66" t="n">
-        <v>3.074750793145959</v>
+        <v>3.009786786445314</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.716357613885771</v>
+        <v>-3.775246792067854</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.641037408720168</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.07304077026455</v>
+        <v>-7.085151150393147</v>
       </c>
       <c r="F67" t="n">
-        <v>3.074227101032289</v>
+        <v>3.010101001713515</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.605858577901602</v>
+        <v>-3.662299495452284</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.356915762502057</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.759833609381937</v>
+        <v>-6.775112326798232</v>
       </c>
       <c r="F68" t="n">
-        <v>3.040396590489269</v>
+        <v>2.976087198930711</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.582593555751855</v>
+        <v>-3.638811904154227</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.027709329701342</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.943544802857038</v>
+        <v>-6.951465646076282</v>
       </c>
       <c r="F69" t="n">
-        <v>2.798477018579855</v>
+        <v>2.735895810996404</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.623978325034551</v>
+        <v>-3.680419242585232</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.659572139145361</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.690509865834998</v>
+        <v>-6.702724984386328</v>
       </c>
       <c r="F70" t="n">
-        <v>2.864854993987406</v>
+        <v>2.800728894668632</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.432961626573768</v>
+        <v>-3.486640068224845</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.244389863474934</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.613134356040397</v>
+        <v>-6.623202336925684</v>
       </c>
       <c r="F71" t="n">
-        <v>2.767762476113166</v>
+        <v>2.706490498813888</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.427567597802977</v>
+        <v>-3.478810871125492</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.792030145583378</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.786725199418843</v>
+        <v>-6.794240181249993</v>
       </c>
       <c r="F72" t="n">
-        <v>2.922408757279634</v>
+        <v>2.855271428307263</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.305206935444205</v>
+        <v>-3.355284993813807</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.298555315625248</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.932926945252397</v>
+        <v>-6.94007534260398</v>
       </c>
       <c r="F73" t="n">
-        <v>2.668706112812666</v>
+        <v>2.609476534756697</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.22924539435651</v>
+        <v>-3.275448131084961</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.777622112027857</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.205233752057458</v>
+        <v>-7.212172672563573</v>
       </c>
       <c r="F74" t="n">
-        <v>2.80405433959043</v>
+        <v>2.743384608221872</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.200049559019461</v>
+        <v>-3.24434081953302</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.228329929392534</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.375237304457271</v>
+        <v>-7.381495425215617</v>
       </c>
       <c r="F75" t="n">
-        <v>2.352526999184982</v>
+        <v>2.296151543148509</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.935166087925659</v>
+        <v>-2.979326425410801</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.666605588020459</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.813122465301642</v>
+        <v>-7.818673601706533</v>
       </c>
       <c r="F76" t="n">
-        <v>2.606177274440582</v>
+        <v>2.544669635690153</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.862608545576813</v>
+        <v>-2.905917883377243</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.093206953552893</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.12970744031742</v>
+        <v>-8.13881968309526</v>
       </c>
       <c r="F77" t="n">
-        <v>2.449200563368287</v>
+        <v>2.39120166177944</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.734526546876207</v>
+        <v>-2.777822792373795</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.52543060985203</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.475003835465102</v>
+        <v>-8.488803122660283</v>
       </c>
       <c r="F78" t="n">
-        <v>2.342000787700234</v>
+        <v>2.287274961821819</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.574761175298624</v>
+        <v>-2.615124744959666</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.965134352990121</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.932488173663536</v>
+        <v>-8.948081106348033</v>
       </c>
       <c r="F79" t="n">
-        <v>2.458338990751812</v>
+        <v>2.397852551623037</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.288668173601226</v>
+        <v>-2.328953189445217</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.430113526346869</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.324065859356722</v>
+        <v>-9.344856436269383</v>
       </c>
       <c r="F80" t="n">
-        <v>2.164495345772112</v>
+        <v>2.108381735792474</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.733122487118264</v>
+        <v>-1.777269732300564</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.923320038400473</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.955939671406947</v>
+        <v>-9.983381138163205</v>
       </c>
       <c r="F81" t="n">
-        <v>2.308615415453832</v>
+        <v>2.252004297966209</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.842443215846677</v>
+        <v>-1.88175940128038</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.461454456454288</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.6076221376567</v>
+        <v>-10.63865089539159</v>
       </c>
       <c r="F82" t="n">
-        <v>2.290207637658366</v>
+        <v>2.231789782378584</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.612935147031219</v>
+        <v>-1.655000716061684</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.04860995478302</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.20357067070923</v>
+        <v>-11.23894607298758</v>
       </c>
       <c r="F83" t="n">
-        <v>1.965806557846077</v>
+        <v>1.913018392788238</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.208553189158825</v>
+        <v>-1.251836342353572</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.697718148194763</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.07718076242909</v>
+        <v>-12.11986166969312</v>
       </c>
       <c r="F84" t="n">
-        <v>2.028125919372693</v>
+        <v>1.972195601632839</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.062181243388328</v>
+        <v>-1.104993073680772</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.412296130088631</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.70159196185953</v>
+        <v>-12.75012512849381</v>
       </c>
       <c r="F85" t="n">
-        <v>1.949205517842769</v>
+        <v>1.893091907863131</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.7628912004264701</v>
+        <v>-0.8038439237153893</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.200718559849751</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.48910707009219</v>
+        <v>-13.5448017263809</v>
       </c>
       <c r="F86" t="n">
-        <v>1.916186730075935</v>
+        <v>1.859470874165578</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.560628213824644</v>
+        <v>-0.5985173382485993</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.065428162480932</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.30614532123295</v>
+        <v>-14.36817665209705</v>
       </c>
       <c r="F87" t="n">
-        <v>1.934332661814568</v>
+        <v>1.875705329689318</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1697444201820706</v>
+        <v>-0.2079084829657021</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.009137554254587</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.49823877188063</v>
+        <v>-15.56155314842322</v>
       </c>
       <c r="F88" t="n">
-        <v>1.954180592922624</v>
+        <v>1.896286429756512</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1075243694000041</v>
+        <v>0.06945195273626471</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.03163785475702</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.41771120045506</v>
+        <v>-16.49571514078606</v>
       </c>
       <c r="F89" t="n">
-        <v>1.692491643722204</v>
+        <v>1.637687264026738</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2868627337259678</v>
+        <v>0.253110776999998</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.128668046158443</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.81448971373029</v>
+        <v>-17.89498119160122</v>
       </c>
       <c r="F90" t="n">
-        <v>1.655335688257385</v>
+        <v>1.597808109570841</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7509063156481066</v>
+        <v>0.7134754218236118</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.296533615825972</v>
       </c>
       <c r="E91" t="n">
-        <v>-18.94624074058045</v>
+        <v>-19.03943175220786</v>
       </c>
       <c r="F91" t="n">
-        <v>1.339968297405888</v>
+        <v>1.28719322465089</v>
       </c>
       <c r="G91" t="n">
-        <v>0.721919957156525</v>
+        <v>0.6829834485052317</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.524431832639055</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.2172676850609</v>
+        <v>-20.31945310874057</v>
       </c>
       <c r="F92" t="n">
-        <v>1.126118622789134</v>
+        <v>1.077114133252553</v>
       </c>
       <c r="G92" t="n">
-        <v>1.228304046468806</v>
+        <v>1.182742832579599</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.807038625017401</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.79503419282015</v>
+        <v>-21.9088193968176</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9879031816890319</v>
+        <v>0.9378251233194297</v>
       </c>
       <c r="G93" t="n">
-        <v>1.225083339969741</v>
+        <v>1.179823249045894</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.131293519008615</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.41071600960904</v>
+        <v>-23.53641520919246</v>
       </c>
       <c r="F94" t="n">
-        <v>1.092170281520538</v>
+        <v>1.041385238797483</v>
       </c>
       <c r="G94" t="n">
-        <v>1.396631784104878</v>
+        <v>1.344053095892506</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.491572036559542</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.05733493801293</v>
+        <v>-25.20128480775771</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3613841215010726</v>
+        <v>0.3167000919022615</v>
       </c>
       <c r="G95" t="n">
-        <v>1.377857421829843</v>
+        <v>1.321455781187687</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.878417017359562</v>
       </c>
       <c r="E96" t="n">
-        <v>-26.81645602473577</v>
+        <v>-26.96561663101156</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5385360712524681</v>
+        <v>0.4843208451848804</v>
       </c>
       <c r="G96" t="n">
-        <v>1.087038098806582</v>
+        <v>1.029890196902447</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.282028699237233</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.71643719773274</v>
+        <v>-28.87502426205457</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1020441221875051</v>
+        <v>-0.1455498445305608</v>
       </c>
       <c r="G97" t="n">
-        <v>1.269570985025926</v>
+        <v>1.206636285265749</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.699970834819892</v>
       </c>
       <c r="E98" t="n">
-        <v>-30.93568726782804</v>
+        <v>-31.10049317599969</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.365631455299976</v>
+        <v>-0.4163510365088228</v>
       </c>
       <c r="G98" t="n">
-        <v>1.148859952825212</v>
+        <v>1.08156551621874</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.112737732553343</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.09892846636644</v>
+        <v>-33.27538652406722</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.3404680492381785</v>
+        <v>-0.3896951079230685</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7726526306682135</v>
+        <v>0.7032503333042237</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.533199152462807</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.05037548183424</v>
+        <v>-35.24162784174617</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.4088884238890389</v>
+        <v>-0.4596472820064109</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5868466687384372</v>
+        <v>0.5128882499855266</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.918714462475655</v>
       </c>
       <c r="E101" t="n">
-        <v>-36.84547421676614</v>
+        <v>-37.0545582931485</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.7689136597336641</v>
+        <v>-0.8186644105322232</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01418934244133898</v>
+        <v>-0.0575695694341616</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.326106736393519</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.1449408263727</v>
+        <v>-39.35779548597348</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.672515033910035</v>
+        <v>-0.7260887371383781</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.5247291194326311</v>
+        <v>-0.59389575534547</v>
       </c>
     </row>
   </sheetData>
